--- a/data/long_bre/BESCORE_R-Edad-long_bre.xlsx
+++ b/data/long_bre/BESCORE_R-Edad-long_bre.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Peor diferencia negativa</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -754,7 +754,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -858,7 +858,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Mejor Diferencia Positiva</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -976,7 +976,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Peor diferencia negativa</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1090,7 +1090,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1196,7 +1196,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Mejor Diferencia Positiva</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Peor diferencia negativa</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1428,7 +1428,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1542,7 +1542,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Mejor Diferencia Positiva</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Peor diferencia negativa</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1774,7 +1774,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1888,7 +1888,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Mejor Diferencia Positiva</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Peor diferencia negativa</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -2120,7 +2120,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -2234,7 +2234,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Mejor Diferencia Positiva</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Peor diferencia negativa</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -2466,7 +2466,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -2574,7 +2574,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Mejor Diferencia Positiva</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Peor diferencia negativa</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -2806,7 +2806,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -2920,7 +2920,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Mejor Diferencia Positiva</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
